--- a/Maxiquiosco/Precarga/Datos.xlsx
+++ b/Maxiquiosco/Precarga/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\MaxiquioscoPrograII\Maxiquiosco\Precarga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAE23426-03A1-4BB5-8124-1DAD85F1FC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1AD37C-5E88-4B27-86DB-52230D0294F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8B33AC1D-F671-460C-A3A2-2B7F0EEA1529}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B33AC1D-F671-460C-A3A2-2B7F0EEA1529}"/>
   </bookViews>
   <sheets>
     <sheet name="Proveedores" sheetId="1" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -699,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2584C2D2-E4C6-4BCF-B375-30D8D80EC49F}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +741,15 @@
       <c r="G1" s="2">
         <v>96094200</v>
       </c>
+      <c r="H1" s="2">
+        <v>96209157</v>
+      </c>
+      <c r="I1" s="2">
+        <v>96757308</v>
+      </c>
+      <c r="J1" s="3">
+        <v>96227218</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -764,6 +773,15 @@
       <c r="G2" s="5">
         <v>2096094200</v>
       </c>
+      <c r="H2" s="5">
+        <v>2096209157</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2096757308</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2096227218</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -787,6 +805,15 @@
       <c r="G3" s="5">
         <v>1138208671</v>
       </c>
+      <c r="H3" s="5">
+        <v>1137073933</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1139871834</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1136274339</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -810,6 +837,15 @@
       <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -833,6 +869,15 @@
       <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -856,71 +901,13 @@
       <c r="G6" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H13" s="2">
-        <v>96209157</v>
-      </c>
-      <c r="I13" s="2">
-        <v>96757308</v>
-      </c>
-      <c r="J13" s="3">
-        <v>96227218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H14" s="5">
-        <v>2096209157</v>
-      </c>
-      <c r="I14" s="5">
-        <v>2096757308</v>
-      </c>
-      <c r="J14" s="6">
-        <v>2096227218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H15" s="5">
-        <v>1137073933</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1139871834</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1136274339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -934,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD00DEA7-8A0E-430E-805C-0A49C649D9A5}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Maxiquiosco/Precarga/Datos.xlsx
+++ b/Maxiquiosco/Precarga/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\MaxiquioscoPrograII\Maxiquiosco\Precarga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estebanr\Documents\GitHub\MaxiquioscoPrograII\Maxiquiosco\Precarga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAE23426-03A1-4BB5-8124-1DAD85F1FC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F76118-11B1-4BD2-A81D-67EE99F66A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8B33AC1D-F671-460C-A3A2-2B7F0EEA1529}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B33AC1D-F671-460C-A3A2-2B7F0EEA1529}"/>
   </bookViews>
   <sheets>
     <sheet name="Proveedores" sheetId="1" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -699,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2584C2D2-E4C6-4BCF-B375-30D8D80EC49F}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,6 +741,15 @@
       <c r="G1" s="2">
         <v>96094200</v>
       </c>
+      <c r="H1" s="2">
+        <v>96209157</v>
+      </c>
+      <c r="I1" s="2">
+        <v>96757308</v>
+      </c>
+      <c r="J1" s="3">
+        <v>96227218</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -764,6 +773,15 @@
       <c r="G2" s="5">
         <v>2096094200</v>
       </c>
+      <c r="H2" s="5">
+        <v>2096209157</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2096757308</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2096227218</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -787,6 +805,15 @@
       <c r="G3" s="5">
         <v>1138208671</v>
       </c>
+      <c r="H3" s="5">
+        <v>1137073933</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1139871834</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1136274339</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -810,6 +837,15 @@
       <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -833,6 +869,15 @@
       <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -856,71 +901,13 @@
       <c r="G6" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H13" s="2">
-        <v>96209157</v>
-      </c>
-      <c r="I13" s="2">
-        <v>96757308</v>
-      </c>
-      <c r="J13" s="3">
-        <v>96227218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H14" s="5">
-        <v>2096209157</v>
-      </c>
-      <c r="I14" s="5">
-        <v>2096757308</v>
-      </c>
-      <c r="J14" s="6">
-        <v>2096227218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H15" s="5">
-        <v>1137073933</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1139871834</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1136274339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -934,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD00DEA7-8A0E-430E-805C-0A49C649D9A5}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Maxiquiosco/Precarga/Datos.xlsx
+++ b/Maxiquiosco/Precarga/Datos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\MaxiquioscoPrograII\Maxiquiosco\Precarga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1AD37C-5E88-4B27-86DB-52230D0294F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE27A4-71A1-47C9-B553-A348E9BD3114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B33AC1D-F671-460C-A3A2-2B7F0EEA1529}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8B33AC1D-F671-460C-A3A2-2B7F0EEA1529}"/>
   </bookViews>
   <sheets>
     <sheet name="Proveedores" sheetId="1" r:id="rId1"/>
-    <sheet name="Productos" sheetId="2" r:id="rId2"/>
+    <sheet name="Compras" sheetId="3" r:id="rId2"/>
+    <sheet name="Productos" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Distribuciones Ande SRL</t>
   </si>
@@ -187,6 +188,60 @@
   </si>
   <si>
     <t>2500.00</t>
+  </si>
+  <si>
+    <t>432.10</t>
+  </si>
+  <si>
+    <t>76.54</t>
+  </si>
+  <si>
+    <t>987.65</t>
+  </si>
+  <si>
+    <t>123.45</t>
+  </si>
+  <si>
+    <t>567.89</t>
+  </si>
+  <si>
+    <t>99.99</t>
+  </si>
+  <si>
+    <t>789.12</t>
+  </si>
+  <si>
+    <t>234.56</t>
+  </si>
+  <si>
+    <t>876.54</t>
+  </si>
+  <si>
+    <t>321.00</t>
+  </si>
+  <si>
+    <t>654.32</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>543.21</t>
+  </si>
+  <si>
+    <t>98.76</t>
+  </si>
+  <si>
+    <t>765.43</t>
+  </si>
+  <si>
+    <t>210.98</t>
+  </si>
+  <si>
+    <t>345.67</t>
+  </si>
+  <si>
+    <t>12.34</t>
   </si>
 </sst>
 </file>
@@ -701,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2584C2D2-E4C6-4BCF-B375-30D8D80EC49F}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -918,6 +973,434 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEC9C53-B2AE-425B-B1BF-7168DD85B718}">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>2</v>
+      </c>
+      <c r="O1">
+        <v>9</v>
+      </c>
+      <c r="P1">
+        <v>4</v>
+      </c>
+      <c r="Q1">
+        <v>7</v>
+      </c>
+      <c r="R1">
+        <v>3</v>
+      </c>
+      <c r="S1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>765</v>
+      </c>
+      <c r="B3">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>321</v>
+      </c>
+      <c r="D3">
+        <v>654</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>876</v>
+      </c>
+      <c r="G3">
+        <v>234</v>
+      </c>
+      <c r="H3">
+        <v>543</v>
+      </c>
+      <c r="I3">
+        <v>789</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>456</v>
+      </c>
+      <c r="L3">
+        <v>901</v>
+      </c>
+      <c r="M3">
+        <v>345</v>
+      </c>
+      <c r="N3">
+        <v>678</v>
+      </c>
+      <c r="O3">
+        <v>123</v>
+      </c>
+      <c r="P3">
+        <v>890</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+      <c r="R3">
+        <v>200</v>
+      </c>
+      <c r="S3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <v>28</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>19</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7">
+        <v>2024</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>2024</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
+        <v>2024</v>
+      </c>
+      <c r="G7">
+        <v>2023</v>
+      </c>
+      <c r="H7">
+        <v>2024</v>
+      </c>
+      <c r="I7">
+        <v>2023</v>
+      </c>
+      <c r="J7">
+        <v>2024</v>
+      </c>
+      <c r="K7">
+        <v>2023</v>
+      </c>
+      <c r="L7">
+        <v>2024</v>
+      </c>
+      <c r="M7">
+        <v>2023</v>
+      </c>
+      <c r="N7">
+        <v>2024</v>
+      </c>
+      <c r="O7">
+        <v>2023</v>
+      </c>
+      <c r="P7">
+        <v>2024</v>
+      </c>
+      <c r="Q7">
+        <v>2023</v>
+      </c>
+      <c r="R7">
+        <v>2024</v>
+      </c>
+      <c r="S7">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD00DEA7-8A0E-430E-805C-0A49C649D9A5}">
   <dimension ref="A1:K4"/>
   <sheetViews>

--- a/Maxiquiosco/Precarga/Datos.xlsx
+++ b/Maxiquiosco/Precarga/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\MaxiquioscoPrograII\Maxiquiosco\Precarga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE27A4-71A1-47C9-B553-A348E9BD3114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB0B1D-610D-4980-8801-5F2127B92E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8B33AC1D-F671-460C-A3A2-2B7F0EEA1529}"/>
+    <workbookView xWindow="22932" yWindow="2376" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8B33AC1D-F671-460C-A3A2-2B7F0EEA1529}"/>
   </bookViews>
   <sheets>
     <sheet name="Proveedores" sheetId="1" r:id="rId1"/>
@@ -977,7 +977,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
